--- a/HR & Payroll/hr&payrollquestions.xlsx
+++ b/HR & Payroll/hr&payrollquestions.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\NexusProduct\Documents\HR &amp; Payroll\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340"/>
   </bookViews>
@@ -91,8 +96,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,8 +133,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,6 +145,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -179,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,8 +451,8 @@
     <col min="1" max="1" width="56.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -551,6 +568,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
